--- a/Attempt6/security_posture_update.xlsx
+++ b/Attempt6/security_posture_update.xlsx
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C2">
         <v>0.17</v>
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="C4">
         <v>0.67</v>
@@ -657,7 +657,7 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
         <v>0.47</v>
@@ -824,10 +824,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="C16">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="D16">
         <v>0.11</v>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C2">
         <v>0.17</v>
@@ -1493,10 +1493,10 @@
         <v>0.55</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F2">
-        <v>0.2575</v>
+        <v>0.243</v>
       </c>
       <c r="G2">
         <v>0.7000000000000001</v>
@@ -1505,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -1528,10 +1528,10 @@
         <v>0.42</v>
       </c>
       <c r="E3">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="F3">
-        <v>0.08449999999999999</v>
+        <v>0.08349999999999999</v>
       </c>
       <c r="G3">
         <v>0.5700000000000001</v>
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="C4">
         <v>0.67</v>
@@ -1563,10 +1563,10 @@
         <v>0.16</v>
       </c>
       <c r="E4">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="F4">
-        <v>0.7665000000000001</v>
+        <v>0.7575000000000001</v>
       </c>
       <c r="G4">
         <v>0.3100000000000001</v>
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>0.6665</v>
+        <v>0.6529999999999999</v>
       </c>
       <c r="G5">
         <v>0.73</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
         <v>0.47</v>
@@ -1636,7 +1636,7 @@
         <v>1.4</v>
       </c>
       <c r="F6">
-        <v>0.702</v>
+        <v>0.7915</v>
       </c>
       <c r="G6">
         <v>0.62</v>
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1706,7 +1706,7 @@
         <v>7.6</v>
       </c>
       <c r="F8">
-        <v>0.4725</v>
+        <v>0.472</v>
       </c>
       <c r="G8">
         <v>0.42</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1776,7 +1776,7 @@
         <v>1.8</v>
       </c>
       <c r="F10">
-        <v>0.215</v>
+        <v>0.201</v>
       </c>
       <c r="G10">
         <v>0.21</v>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1811,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0.182</v>
+        <v>0.1785</v>
       </c>
       <c r="G11">
         <v>0.6900000000000001</v>
@@ -1820,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1846,7 +1846,7 @@
         <v>4.2</v>
       </c>
       <c r="F12">
-        <v>0.6689999999999999</v>
+        <v>0.6529999999999999</v>
       </c>
       <c r="G12">
         <v>0.42</v>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1881,7 +1881,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F13">
-        <v>0.4885</v>
+        <v>0.4815</v>
       </c>
       <c r="G13">
         <v>0.27</v>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>6.9</v>
       </c>
       <c r="F14">
-        <v>0.5715</v>
+        <v>0.5645</v>
       </c>
       <c r="G14">
         <v>0.33</v>
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="F15">
-        <v>0.756</v>
+        <v>0.736</v>
       </c>
       <c r="G15">
         <v>0.5</v>
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -1974,19 +1974,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="C16">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="D16">
         <v>0.11</v>
       </c>
       <c r="E16">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="F16">
-        <v>0.645</v>
+        <v>0.83</v>
       </c>
       <c r="G16">
         <v>0.26</v>
@@ -1995,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>3.7</v>
       </c>
       <c r="F18">
-        <v>0.6045</v>
+        <v>0.5955</v>
       </c>
       <c r="G18">
         <v>0.37</v>
@@ -2065,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -2091,7 +2091,7 @@
         <v>2.5</v>
       </c>
       <c r="F19">
-        <v>0.224</v>
+        <v>0.2145</v>
       </c>
       <c r="G19">
         <v>0.6100000000000001</v>
@@ -2100,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>2.4</v>
       </c>
       <c r="F20">
-        <v>0.721</v>
+        <v>0.7195</v>
       </c>
       <c r="G20">
         <v>0.65</v>
@@ -2135,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2161,7 +2161,7 @@
         <v>3.8</v>
       </c>
       <c r="F21">
-        <v>0.6869999999999999</v>
+        <v>0.6785</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>1.2</v>
       </c>
       <c r="F22">
-        <v>0.385</v>
+        <v>0.3835</v>
       </c>
       <c r="G22">
         <v>0.21</v>
@@ -2205,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -2266,7 +2266,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F24">
-        <v>0.322</v>
+        <v>0.3065</v>
       </c>
       <c r="G24">
         <v>0.49</v>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>0.71</v>
+        <v>0.699</v>
       </c>
       <c r="G25">
         <v>0.24</v>
@@ -2310,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2336,7 +2336,7 @@
         <v>0.6</v>
       </c>
       <c r="F26">
-        <v>0.4125</v>
+        <v>0.402</v>
       </c>
       <c r="G26">
         <v>0.51</v>
@@ -2345,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2371,7 +2371,7 @@
         <v>7.2</v>
       </c>
       <c r="F27">
-        <v>0.4645</v>
+        <v>0.4429999999999999</v>
       </c>
       <c r="G27">
         <v>0.51</v>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2406,7 +2406,7 @@
         <v>2.6</v>
       </c>
       <c r="F28">
-        <v>0.529</v>
+        <v>0.5285</v>
       </c>
       <c r="G28">
         <v>0.35</v>
@@ -2415,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2441,7 +2441,7 @@
         <v>7.3</v>
       </c>
       <c r="F29">
-        <v>0.602</v>
+        <v>0.5965</v>
       </c>
       <c r="G29">
         <v>0.7000000000000001</v>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2476,7 +2476,7 @@
         <v>5.6</v>
       </c>
       <c r="F30">
-        <v>0.4515</v>
+        <v>0.4315</v>
       </c>
       <c r="G30">
         <v>0.6900000000000001</v>
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2511,7 +2511,7 @@
         <v>1.4</v>
       </c>
       <c r="F31">
-        <v>0.4215</v>
+        <v>0.4175</v>
       </c>
       <c r="G31">
         <v>0.7100000000000001</v>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2546,7 +2546,7 @@
         <v>3.4</v>
       </c>
       <c r="F32">
-        <v>0.888</v>
+        <v>0.8835000000000001</v>
       </c>
       <c r="G32">
         <v>0.3200000000000001</v>
@@ -2555,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2581,7 +2581,7 @@
         <v>5.6</v>
       </c>
       <c r="F33">
-        <v>0.6995</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G33">
         <v>0.6900000000000001</v>
@@ -2590,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -2616,7 +2616,7 @@
         <v>6.6</v>
       </c>
       <c r="F34">
-        <v>0.1225</v>
+        <v>0.1055</v>
       </c>
       <c r="G34">
         <v>0.34</v>
@@ -2625,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>5.8</v>
       </c>
       <c r="F35">
-        <v>0.212</v>
+        <v>0.211</v>
       </c>
       <c r="G35">
         <v>0.62</v>
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -2686,7 +2686,7 @@
         <v>7.3</v>
       </c>
       <c r="F36">
-        <v>0.8555</v>
+        <v>0.8535</v>
       </c>
       <c r="G36">
         <v>0.23</v>
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2721,7 +2721,7 @@
         <v>1.4</v>
       </c>
       <c r="F37">
-        <v>0.2175</v>
+        <v>0.2045</v>
       </c>
       <c r="G37">
         <v>0.22</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -2756,7 +2756,7 @@
         <v>1.8</v>
       </c>
       <c r="F38">
-        <v>0.698</v>
+        <v>0.6945</v>
       </c>
       <c r="G38">
         <v>0.73</v>
@@ -2765,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="I38">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -2791,7 +2791,7 @@
         <v>5.3</v>
       </c>
       <c r="F39">
-        <v>0.486</v>
+        <v>0.48</v>
       </c>
       <c r="G39">
         <v>0.44</v>
@@ -2800,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -2826,7 +2826,7 @@
         <v>2.8</v>
       </c>
       <c r="F40">
-        <v>0.241</v>
+        <v>0.2205</v>
       </c>
       <c r="G40">
         <v>0.62</v>
@@ -2835,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -2861,7 +2861,7 @@
         <v>7.2</v>
       </c>
       <c r="F41">
-        <v>0.522</v>
+        <v>0.516</v>
       </c>
       <c r="G41">
         <v>0.15</v>
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="I41">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>4.9</v>
       </c>
       <c r="F42">
-        <v>0.227</v>
+        <v>0.2145</v>
       </c>
       <c r="G42">
         <v>0.44</v>
@@ -2905,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="I42">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -2931,7 +2931,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F43">
-        <v>0.6819999999999999</v>
+        <v>0.6739999999999999</v>
       </c>
       <c r="G43">
         <v>0.44</v>
@@ -2940,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="I43">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -2966,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="F44">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="G44">
         <v>0.7100000000000001</v>
@@ -2975,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -3001,7 +3001,7 @@
         <v>3.6</v>
       </c>
       <c r="F45">
-        <v>0.4245</v>
+        <v>0.409</v>
       </c>
       <c r="G45">
         <v>0.49</v>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="I45">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -3036,7 +3036,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="F46">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="G46">
         <v>0.43</v>
@@ -3045,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="I46">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -3071,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>0.62</v>
+        <v>0.6135</v>
       </c>
       <c r="G47">
         <v>0.3100000000000001</v>
@@ -3080,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="I47">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -3106,7 +3106,7 @@
         <v>4.4</v>
       </c>
       <c r="F48">
-        <v>0.392</v>
+        <v>0.3875</v>
       </c>
       <c r="G48">
         <v>0.35</v>
@@ -3115,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="I48">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>3</v>
@@ -3141,7 +3141,7 @@
         <v>3.4</v>
       </c>
       <c r="F49">
-        <v>0.1515</v>
+        <v>0.1475</v>
       </c>
       <c r="G49">
         <v>0.46</v>
@@ -3150,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="I49">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         <v>7.3</v>
       </c>
       <c r="F50">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="G50">
         <v>0.41</v>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="I50">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -3211,7 +3211,7 @@
         <v>1.9</v>
       </c>
       <c r="F51">
-        <v>0.9065</v>
+        <v>0.8965</v>
       </c>
       <c r="G51">
         <v>0.16</v>
@@ -3220,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J51">
         <v>3</v>
